--- a/modelos/OBACOR4451092/OBACOR4451092_Sell in_metricas.xlsx
+++ b/modelos/OBACOR4451092/OBACOR4451092_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,159 +473,159 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44915</v>
+        <v>44897</v>
       </c>
       <c r="B2" t="n">
-        <v>87.58401261155359</v>
+        <v>54.98787927579813</v>
       </c>
       <c r="C2" t="n">
-        <v>52.75497101389567</v>
+        <v>20.45700818850374</v>
       </c>
       <c r="D2" t="n">
-        <v>123.3382265805469</v>
+        <v>88.56845476130701</v>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44922</v>
+        <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>82.66102202422042</v>
+        <v>86.00537234545475</v>
       </c>
       <c r="C3" t="n">
-        <v>44.12614023857098</v>
+        <v>51.96347518435348</v>
       </c>
       <c r="D3" t="n">
-        <v>115.6731170843971</v>
+        <v>121.4723642233788</v>
       </c>
       <c r="E3" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44915</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44929</v>
+        <v>44908</v>
       </c>
       <c r="B4" t="n">
-        <v>85.62792525632807</v>
+        <v>95.1138824180204</v>
       </c>
       <c r="C4" t="n">
-        <v>48.48934825539061</v>
+        <v>60.84801448939457</v>
       </c>
       <c r="D4" t="n">
-        <v>119.8797024004385</v>
+        <v>129.4310142701594</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44922</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44936</v>
+        <v>44915</v>
       </c>
       <c r="B5" t="n">
-        <v>85.88677962798808</v>
+        <v>89.18040713584348</v>
       </c>
       <c r="C5" t="n">
-        <v>53.68223987305602</v>
+        <v>57.22917681508709</v>
       </c>
       <c r="D5" t="n">
-        <v>119.9918239700485</v>
+        <v>124.2643301940706</v>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44929</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44950</v>
+        <v>44922</v>
       </c>
       <c r="B6" t="n">
-        <v>85.19419017416787</v>
+        <v>84.62910062399688</v>
       </c>
       <c r="C6" t="n">
-        <v>49.85110809417487</v>
+        <v>48.05921757826743</v>
       </c>
       <c r="D6" t="n">
-        <v>120.5227286862004</v>
+        <v>118.9889044829046</v>
       </c>
       <c r="E6" t="n">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44943</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44957</v>
+        <v>44929</v>
       </c>
       <c r="B7" t="n">
-        <v>90.44885769999229</v>
+        <v>88.62843724410499</v>
       </c>
       <c r="C7" t="n">
-        <v>53.32412467491452</v>
+        <v>51.79089184229974</v>
       </c>
       <c r="D7" t="n">
-        <v>122.8199235961433</v>
+        <v>123.5338687623298</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44950</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44960</v>
+        <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>49.04607001069038</v>
+        <v>87.1539914745681</v>
       </c>
       <c r="C8" t="n">
-        <v>10.75059186470312</v>
+        <v>52.50451103934468</v>
       </c>
       <c r="D8" t="n">
-        <v>82.01925651360413</v>
+        <v>120.4349813115455</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44957</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B9" t="n">
-        <v>68.50128918160908</v>
+        <v>52.39167511318665</v>
       </c>
       <c r="C9" t="n">
-        <v>36.05028785475209</v>
+        <v>18.71023260333588</v>
       </c>
       <c r="D9" t="n">
-        <v>102.6379335733877</v>
+        <v>86.94586312197862</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>44957</v>
@@ -633,59 +633,59 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B10" t="n">
-        <v>66.75339464803909</v>
+        <v>73.7369132110689</v>
       </c>
       <c r="C10" t="n">
-        <v>32.52202516176195</v>
+        <v>41.46352380833395</v>
       </c>
       <c r="D10" t="n">
-        <v>101.5618348915619</v>
+        <v>110.3009673116308</v>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B11" t="n">
-        <v>116.1036046809906</v>
+        <v>69.95983714000963</v>
       </c>
       <c r="C11" t="n">
-        <v>82.12889778235662</v>
+        <v>37.56120210244866</v>
       </c>
       <c r="D11" t="n">
-        <v>151.6571972683431</v>
+        <v>103.5466112407234</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B12" t="n">
-        <v>87.52229143247285</v>
+        <v>117.41794529723</v>
       </c>
       <c r="C12" t="n">
-        <v>54.58155558852938</v>
+        <v>83.19357232028702</v>
       </c>
       <c r="D12" t="n">
-        <v>122.2254368572996</v>
+        <v>150.2016624020066</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>44978</v>
@@ -693,39 +693,39 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B13" t="n">
-        <v>60.80319945591163</v>
+        <v>87.77487459982315</v>
       </c>
       <c r="C13" t="n">
-        <v>22.93479411354783</v>
+        <v>52.63002676550993</v>
       </c>
       <c r="D13" t="n">
-        <v>95.24346698050314</v>
+        <v>120.7894541425365</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B14" t="n">
-        <v>91.43873934979383</v>
+        <v>60.00233963031069</v>
       </c>
       <c r="C14" t="n">
-        <v>54.4676436846404</v>
+        <v>24.81861001424015</v>
       </c>
       <c r="D14" t="n">
-        <v>127.7647709893587</v>
+        <v>91.92226715777943</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44985</v>
@@ -733,181 +733,221 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B15" t="n">
-        <v>95.18558415814059</v>
+        <v>91.16081683733367</v>
       </c>
       <c r="C15" t="n">
-        <v>60.60821867689623</v>
+        <v>56.55395513389263</v>
       </c>
       <c r="D15" t="n">
-        <v>133.4915037607045</v>
+        <v>122.7325142451784</v>
       </c>
       <c r="E15" t="n">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B16" t="n">
-        <v>109.3937255966096</v>
+        <v>96.48445677337624</v>
       </c>
       <c r="C16" t="n">
-        <v>72.56809957661417</v>
+        <v>62.70392483485613</v>
       </c>
       <c r="D16" t="n">
-        <v>144.0418910272512</v>
+        <v>129.0226356740718</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B17" t="n">
-        <v>100.2403798241511</v>
+        <v>109.1786935482797</v>
       </c>
       <c r="C17" t="n">
-        <v>63.08408221266365</v>
+        <v>77.46139123412122</v>
       </c>
       <c r="D17" t="n">
-        <v>137.6804087438225</v>
+        <v>144.7461244366918</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B18" t="n">
-        <v>86.45963012721921</v>
+        <v>98.38389195346575</v>
       </c>
       <c r="C18" t="n">
-        <v>49.53609162688431</v>
+        <v>67.55263347693622</v>
       </c>
       <c r="D18" t="n">
-        <v>121.773733609934</v>
+        <v>134.9174734682855</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B19" t="n">
-        <v>86.6732144161131</v>
+        <v>87.40643441993114</v>
       </c>
       <c r="C19" t="n">
-        <v>50.31117262088977</v>
+        <v>52.627950459344</v>
       </c>
       <c r="D19" t="n">
-        <v>125.1495184561317</v>
+        <v>121.4322908766485</v>
       </c>
       <c r="E19" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B20" t="n">
-        <v>91.4398445029808</v>
+        <v>93.8767880280169</v>
       </c>
       <c r="C20" t="n">
-        <v>55.10619728520884</v>
+        <v>57.92082319024138</v>
       </c>
       <c r="D20" t="n">
-        <v>129.2124440732815</v>
+        <v>129.1658237220428</v>
       </c>
       <c r="E20" t="n">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B21" t="n">
-        <v>107.1269298557495</v>
+        <v>100.5029885629091</v>
       </c>
       <c r="C21" t="n">
-        <v>71.48807065635611</v>
+        <v>67.33146611623368</v>
       </c>
       <c r="D21" t="n">
-        <v>143.6903160641583</v>
+        <v>139.1398094214448</v>
       </c>
       <c r="E21" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B22" t="n">
-        <v>94.62122950008698</v>
+        <v>77.3145978643545</v>
       </c>
       <c r="C22" t="n">
-        <v>58.05302666512889</v>
+        <v>43.83780300073821</v>
       </c>
       <c r="D22" t="n">
-        <v>133.181463402279</v>
+        <v>112.9155967677951</v>
       </c>
       <c r="E22" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B23" t="n">
+        <v>106.8012709865212</v>
+      </c>
+      <c r="C23" t="n">
+        <v>68.09491585996676</v>
+      </c>
+      <c r="D23" t="n">
+        <v>141.0860741306845</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B24" t="n">
+        <v>93.75839549205374</v>
+      </c>
+      <c r="C24" t="n">
+        <v>60.11075437992528</v>
+      </c>
+      <c r="D24" t="n">
+        <v>127.6695549382549</v>
+      </c>
+      <c r="E24" t="n">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B23" t="n">
-        <v>78.3727524395063</v>
-      </c>
-      <c r="C23" t="n">
-        <v>41.911922484053</v>
-      </c>
-      <c r="D23" t="n">
-        <v>112.8099810266841</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="B25" t="n">
+        <v>77.77625479584314</v>
+      </c>
+      <c r="C25" t="n">
+        <v>41.91527617860118</v>
+      </c>
+      <c r="D25" t="n">
+        <v>111.9719529801178</v>
+      </c>
+      <c r="E25" t="n">
         <v>30</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F25" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -922,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,51 +1017,77 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1097.433333257336</v>
+        <v>931.7137830065706</v>
       </c>
       <c r="C2" t="n">
-        <v>33.12753134867337</v>
+        <v>30.52398701032633</v>
       </c>
       <c r="D2" t="n">
-        <v>30.924634733301</v>
+        <v>29.13537848923308</v>
       </c>
       <c r="E2" t="n">
-        <v>1.506412262842385</v>
+        <v>1.124959890668804</v>
       </c>
       <c r="F2" t="n">
-        <v>1.506412262842385</v>
+        <v>0.746389170439555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7841147374798606</v>
+        <v>0.6555238018872336</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1585.192477036075</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39.81447572223041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.22498817679379</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.351056576406977</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.955308287470094</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.768658095925031</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>2176.178351091537</v>
-      </c>
-      <c r="C3" t="n">
-        <v>46.64952680458332</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.74680815684962</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.221046708778797</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6050595262243166</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5565180276463675</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.3684210526315788</v>
+      <c r="B4" t="n">
+        <v>1545.944506666199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>39.3185008191589</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.19964642338311</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8977567543360472</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4574966070835338</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4766914700405849</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4736842105263159</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOR4451092/OBACOR4451092_Sell in_metricas.xlsx
+++ b/modelos/OBACOR4451092/OBACOR4451092_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44897</v>
       </c>
       <c r="B2" t="n">
-        <v>54.98787927579813</v>
+        <v>55.09659963943302</v>
       </c>
       <c r="C2" t="n">
-        <v>20.45700818850374</v>
+        <v>23.02966335356121</v>
       </c>
       <c r="D2" t="n">
-        <v>88.56845476130701</v>
+        <v>90.58907869436521</v>
       </c>
       <c r="E2" t="n">
         <v>78</v>
@@ -496,13 +496,13 @@
         <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>86.00537234545475</v>
+        <v>85.48743483450563</v>
       </c>
       <c r="C3" t="n">
-        <v>51.96347518435348</v>
+        <v>51.24831159070681</v>
       </c>
       <c r="D3" t="n">
-        <v>121.4723642233788</v>
+        <v>118.8209966739551</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
@@ -516,13 +516,13 @@
         <v>44908</v>
       </c>
       <c r="B4" t="n">
-        <v>95.1138824180204</v>
+        <v>95.26656992957336</v>
       </c>
       <c r="C4" t="n">
-        <v>60.84801448939457</v>
+        <v>62.10418036787308</v>
       </c>
       <c r="D4" t="n">
-        <v>129.4310142701594</v>
+        <v>129.9028331205151</v>
       </c>
       <c r="E4" t="n">
         <v>72</v>
@@ -536,13 +536,13 @@
         <v>44915</v>
       </c>
       <c r="B5" t="n">
-        <v>89.18040713584348</v>
+        <v>89.09342067337516</v>
       </c>
       <c r="C5" t="n">
-        <v>57.22917681508709</v>
+        <v>55.84753700630076</v>
       </c>
       <c r="D5" t="n">
-        <v>124.2643301940706</v>
+        <v>124.9215087520933</v>
       </c>
       <c r="E5" t="n">
         <v>90</v>
@@ -556,13 +556,13 @@
         <v>44922</v>
       </c>
       <c r="B6" t="n">
-        <v>84.62910062399688</v>
+        <v>83.95926126986711</v>
       </c>
       <c r="C6" t="n">
-        <v>48.05921757826743</v>
+        <v>49.77858119026599</v>
       </c>
       <c r="D6" t="n">
-        <v>118.9889044829046</v>
+        <v>117.8585853721058</v>
       </c>
       <c r="E6" t="n">
         <v>120</v>
@@ -576,13 +576,13 @@
         <v>44929</v>
       </c>
       <c r="B7" t="n">
-        <v>88.62843724410499</v>
+        <v>87.65041093140388</v>
       </c>
       <c r="C7" t="n">
-        <v>51.79089184229974</v>
+        <v>49.57796134515495</v>
       </c>
       <c r="D7" t="n">
-        <v>123.5338687623298</v>
+        <v>121.8295332641985</v>
       </c>
       <c r="E7" t="n">
         <v>78</v>
@@ -596,13 +596,13 @@
         <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>87.1539914745681</v>
+        <v>86.82729879746698</v>
       </c>
       <c r="C8" t="n">
-        <v>52.50451103934468</v>
+        <v>52.9394263257837</v>
       </c>
       <c r="D8" t="n">
-        <v>120.4349813115455</v>
+        <v>120.7565849980749</v>
       </c>
       <c r="E8" t="n">
         <v>120</v>
@@ -616,13 +616,13 @@
         <v>44960</v>
       </c>
       <c r="B9" t="n">
-        <v>52.39167511318665</v>
+        <v>53.71326129712601</v>
       </c>
       <c r="C9" t="n">
-        <v>18.71023260333588</v>
+        <v>19.62466483516999</v>
       </c>
       <c r="D9" t="n">
-        <v>86.94586312197862</v>
+        <v>87.40660724302494</v>
       </c>
       <c r="E9" t="n">
         <v>30</v>
@@ -636,13 +636,13 @@
         <v>44964</v>
       </c>
       <c r="B10" t="n">
-        <v>73.7369132110689</v>
+        <v>73.88232432770957</v>
       </c>
       <c r="C10" t="n">
-        <v>41.46352380833395</v>
+        <v>40.16279520582418</v>
       </c>
       <c r="D10" t="n">
-        <v>110.3009673116308</v>
+        <v>109.5666953531644</v>
       </c>
       <c r="E10" t="n">
         <v>42</v>
@@ -656,13 +656,13 @@
         <v>44971</v>
       </c>
       <c r="B11" t="n">
-        <v>69.95983714000963</v>
+        <v>69.76911307001579</v>
       </c>
       <c r="C11" t="n">
-        <v>37.56120210244866</v>
+        <v>36.37297787053377</v>
       </c>
       <c r="D11" t="n">
-        <v>103.5466112407234</v>
+        <v>106.3600992337919</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
@@ -676,13 +676,13 @@
         <v>44980</v>
       </c>
       <c r="B12" t="n">
-        <v>117.41794529723</v>
+        <v>117.4827756603948</v>
       </c>
       <c r="C12" t="n">
-        <v>83.19357232028702</v>
+        <v>82.5600585857828</v>
       </c>
       <c r="D12" t="n">
-        <v>150.2016624020066</v>
+        <v>150.1739597709676</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -696,13 +696,13 @@
         <v>44985</v>
       </c>
       <c r="B13" t="n">
-        <v>87.77487459982315</v>
+        <v>86.93696924098603</v>
       </c>
       <c r="C13" t="n">
-        <v>52.63002676550993</v>
+        <v>52.52280373539845</v>
       </c>
       <c r="D13" t="n">
-        <v>120.7894541425365</v>
+        <v>120.7099283522146</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44988</v>
       </c>
       <c r="B14" t="n">
-        <v>60.00233963031069</v>
+        <v>58.89016597491537</v>
       </c>
       <c r="C14" t="n">
-        <v>24.81861001424015</v>
+        <v>24.14935731483862</v>
       </c>
       <c r="D14" t="n">
-        <v>91.92226715777943</v>
+        <v>92.71380696153079</v>
       </c>
       <c r="E14" t="n">
         <v>18</v>
@@ -736,13 +736,13 @@
         <v>44992</v>
       </c>
       <c r="B15" t="n">
-        <v>91.16081683733367</v>
+        <v>89.62472284217188</v>
       </c>
       <c r="C15" t="n">
-        <v>56.55395513389263</v>
+        <v>53.67272918781371</v>
       </c>
       <c r="D15" t="n">
-        <v>122.7325142451784</v>
+        <v>122.5053820013334</v>
       </c>
       <c r="E15" t="n">
         <v>54</v>
@@ -756,13 +756,13 @@
         <v>44999</v>
       </c>
       <c r="B16" t="n">
-        <v>96.48445677337624</v>
+        <v>95.7933202917216</v>
       </c>
       <c r="C16" t="n">
-        <v>62.70392483485613</v>
+        <v>60.79388800861675</v>
       </c>
       <c r="D16" t="n">
-        <v>129.0226356740718</v>
+        <v>133.5914433567623</v>
       </c>
       <c r="E16" t="n">
         <v>138</v>
@@ -776,13 +776,13 @@
         <v>45006</v>
       </c>
       <c r="B17" t="n">
-        <v>109.1786935482797</v>
+        <v>111.31419952494</v>
       </c>
       <c r="C17" t="n">
-        <v>77.46139123412122</v>
+        <v>78.43217277242003</v>
       </c>
       <c r="D17" t="n">
-        <v>144.7461244366918</v>
+        <v>148.4651065513089</v>
       </c>
       <c r="E17" t="n">
         <v>60</v>
@@ -796,13 +796,13 @@
         <v>45013</v>
       </c>
       <c r="B18" t="n">
-        <v>98.38389195346575</v>
+        <v>99.61879340162741</v>
       </c>
       <c r="C18" t="n">
-        <v>67.55263347693622</v>
+        <v>64.82670277100647</v>
       </c>
       <c r="D18" t="n">
-        <v>134.9174734682855</v>
+        <v>132.3633959325869</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -816,13 +816,13 @@
         <v>45020</v>
       </c>
       <c r="B19" t="n">
-        <v>87.40643441993114</v>
+        <v>86.65940696004255</v>
       </c>
       <c r="C19" t="n">
-        <v>52.627950459344</v>
+        <v>55.39720789837249</v>
       </c>
       <c r="D19" t="n">
-        <v>121.4322908766485</v>
+        <v>122.2458236730808</v>
       </c>
       <c r="E19" t="n">
         <v>90</v>
@@ -836,13 +836,13 @@
         <v>45027</v>
       </c>
       <c r="B20" t="n">
-        <v>93.8767880280169</v>
+        <v>86.6615332404091</v>
       </c>
       <c r="C20" t="n">
-        <v>57.92082319024138</v>
+        <v>49.71579722616039</v>
       </c>
       <c r="D20" t="n">
-        <v>129.1658237220428</v>
+        <v>123.0193107707384</v>
       </c>
       <c r="E20" t="n">
         <v>54</v>
@@ -856,13 +856,13 @@
         <v>45034</v>
       </c>
       <c r="B21" t="n">
-        <v>100.5029885629091</v>
+        <v>91.0853795521552</v>
       </c>
       <c r="C21" t="n">
-        <v>67.33146611623368</v>
+        <v>54.64020884224121</v>
       </c>
       <c r="D21" t="n">
-        <v>139.1398094214448</v>
+        <v>126.0906030046546</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
@@ -876,13 +876,13 @@
         <v>45040</v>
       </c>
       <c r="B22" t="n">
-        <v>77.3145978643545</v>
+        <v>70.49438432040283</v>
       </c>
       <c r="C22" t="n">
-        <v>43.83780300073821</v>
+        <v>33.78398784438816</v>
       </c>
       <c r="D22" t="n">
-        <v>112.9155967677951</v>
+        <v>105.9530574086911</v>
       </c>
       <c r="E22" t="n">
         <v>30</v>
@@ -896,13 +896,13 @@
         <v>45048</v>
       </c>
       <c r="B23" t="n">
-        <v>106.8012709865212</v>
+        <v>104.3856870064019</v>
       </c>
       <c r="C23" t="n">
-        <v>68.09491585996676</v>
+        <v>72.03626274239838</v>
       </c>
       <c r="D23" t="n">
-        <v>141.0860741306845</v>
+        <v>138.6253016740028</v>
       </c>
       <c r="E23" t="n">
         <v>60</v>
@@ -916,13 +916,13 @@
         <v>45055</v>
       </c>
       <c r="B24" t="n">
-        <v>93.75839549205374</v>
+        <v>94.93625635700644</v>
       </c>
       <c r="C24" t="n">
-        <v>60.11075437992528</v>
+        <v>58.96932742012335</v>
       </c>
       <c r="D24" t="n">
-        <v>127.6695549382549</v>
+        <v>130.8767083948694</v>
       </c>
       <c r="E24" t="n">
         <v>78</v>
@@ -936,13 +936,13 @@
         <v>45062</v>
       </c>
       <c r="B25" t="n">
-        <v>77.77625479584314</v>
+        <v>79.40992047167379</v>
       </c>
       <c r="C25" t="n">
-        <v>41.91527617860118</v>
+        <v>43.48305337155342</v>
       </c>
       <c r="D25" t="n">
-        <v>111.9719529801178</v>
+        <v>115.0573445034691</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -1017,22 +1017,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>931.7137830065706</v>
+        <v>919.63006095944</v>
       </c>
       <c r="C2" t="n">
-        <v>30.52398701032633</v>
+        <v>30.32540289855091</v>
       </c>
       <c r="D2" t="n">
-        <v>29.13537848923308</v>
+        <v>29.16894254420279</v>
       </c>
       <c r="E2" t="n">
-        <v>1.124959890668804</v>
+        <v>1.118583756229606</v>
       </c>
       <c r="F2" t="n">
-        <v>0.746389170439555</v>
+        <v>0.7904420432375336</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6555238018872336</v>
+        <v>0.6580989312956353</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666667</v>
@@ -1043,22 +1043,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1585.192477036075</v>
+        <v>1279.712611223963</v>
       </c>
       <c r="C3" t="n">
-        <v>39.81447572223041</v>
+        <v>35.77307103428448</v>
       </c>
       <c r="D3" t="n">
-        <v>38.22498817679379</v>
+        <v>34.83166343230282</v>
       </c>
       <c r="E3" t="n">
-        <v>1.351056576406977</v>
+        <v>1.23419828345485</v>
       </c>
       <c r="F3" t="n">
-        <v>1.955308287470094</v>
+        <v>1.810744349087696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.768658095925031</v>
+        <v>0.7320011787634079</v>
       </c>
       <c r="H3" t="n">
         <v>0.3333333333333334</v>
@@ -1069,25 +1069,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1545.944506666199</v>
+        <v>1491.019235007499</v>
       </c>
       <c r="C4" t="n">
-        <v>39.3185008191589</v>
+        <v>38.61371822302923</v>
       </c>
       <c r="D4" t="n">
-        <v>34.19964642338311</v>
+        <v>33.51167037205761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8977567543360472</v>
+        <v>0.8828204338170798</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4574966070835338</v>
+        <v>0.4535231889586623</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4766914700405849</v>
+        <v>0.4699717267533448</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4736842105263159</v>
+        <v>0.5789473684210522</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOR4451092/OBACOR4451092_Sell in_metricas.xlsx
+++ b/modelos/OBACOR4451092/OBACOR4451092_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>44897</v>
       </c>
       <c r="B2" t="n">
-        <v>55.09659963943302</v>
+        <v>55.33101491628783</v>
       </c>
       <c r="C2" t="n">
-        <v>23.02966335356121</v>
+        <v>21.89358422384696</v>
       </c>
       <c r="D2" t="n">
-        <v>90.58907869436521</v>
+        <v>86.3049840622989</v>
       </c>
       <c r="E2" t="n">
         <v>78</v>
@@ -496,13 +496,13 @@
         <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>85.48743483450563</v>
+        <v>86.69726102339884</v>
       </c>
       <c r="C3" t="n">
-        <v>51.24831159070681</v>
+        <v>53.08701300155911</v>
       </c>
       <c r="D3" t="n">
-        <v>118.8209966739551</v>
+        <v>118.6162717334993</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
@@ -516,13 +516,13 @@
         <v>44908</v>
       </c>
       <c r="B4" t="n">
-        <v>95.26656992957336</v>
+        <v>95.10293672410589</v>
       </c>
       <c r="C4" t="n">
-        <v>62.10418036787308</v>
+        <v>61.13515607216637</v>
       </c>
       <c r="D4" t="n">
-        <v>129.9028331205151</v>
+        <v>128.4295323986758</v>
       </c>
       <c r="E4" t="n">
         <v>72</v>
@@ -536,13 +536,13 @@
         <v>44915</v>
       </c>
       <c r="B5" t="n">
-        <v>89.09342067337516</v>
+        <v>88.02480226174518</v>
       </c>
       <c r="C5" t="n">
-        <v>55.84753700630076</v>
+        <v>53.85932483021875</v>
       </c>
       <c r="D5" t="n">
-        <v>124.9215087520933</v>
+        <v>120.5937407143549</v>
       </c>
       <c r="E5" t="n">
         <v>90</v>
@@ -556,13 +556,13 @@
         <v>44922</v>
       </c>
       <c r="B6" t="n">
-        <v>83.95926126986711</v>
+        <v>85.78345751402827</v>
       </c>
       <c r="C6" t="n">
-        <v>49.77858119026599</v>
+        <v>52.40022297515174</v>
       </c>
       <c r="D6" t="n">
-        <v>117.8585853721058</v>
+        <v>117.1730051747076</v>
       </c>
       <c r="E6" t="n">
         <v>120</v>
@@ -576,13 +576,13 @@
         <v>44929</v>
       </c>
       <c r="B7" t="n">
-        <v>87.65041093140388</v>
+        <v>90.7506428729257</v>
       </c>
       <c r="C7" t="n">
-        <v>49.57796134515495</v>
+        <v>55.03879070066684</v>
       </c>
       <c r="D7" t="n">
-        <v>121.8295332641985</v>
+        <v>124.0950202603136</v>
       </c>
       <c r="E7" t="n">
         <v>78</v>
@@ -596,13 +596,13 @@
         <v>44936</v>
       </c>
       <c r="B8" t="n">
-        <v>86.82729879746698</v>
+        <v>91.87903559921733</v>
       </c>
       <c r="C8" t="n">
-        <v>52.9394263257837</v>
+        <v>60.2258465917777</v>
       </c>
       <c r="D8" t="n">
-        <v>120.7565849980749</v>
+        <v>125.9539727869633</v>
       </c>
       <c r="E8" t="n">
         <v>120</v>
@@ -613,39 +613,39 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B9" t="n">
-        <v>53.71326129712601</v>
+        <v>89.32922944095743</v>
       </c>
       <c r="C9" t="n">
-        <v>19.62466483516999</v>
+        <v>55.13590817762173</v>
       </c>
       <c r="D9" t="n">
-        <v>87.40660724302494</v>
+        <v>123.6005950249431</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B10" t="n">
-        <v>73.88232432770957</v>
+        <v>62.69887958264318</v>
       </c>
       <c r="C10" t="n">
-        <v>40.16279520582418</v>
+        <v>28.39709400075004</v>
       </c>
       <c r="D10" t="n">
-        <v>109.5666953531644</v>
+        <v>99.66395216880751</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>44957</v>
@@ -653,59 +653,59 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B11" t="n">
-        <v>69.76911307001579</v>
+        <v>80.74994603757057</v>
       </c>
       <c r="C11" t="n">
-        <v>36.37297787053377</v>
+        <v>45.54724456949646</v>
       </c>
       <c r="D11" t="n">
-        <v>106.3600992337919</v>
+        <v>114.0698257131856</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B12" t="n">
-        <v>117.4827756603948</v>
+        <v>67.62057684680842</v>
       </c>
       <c r="C12" t="n">
-        <v>82.5600585857828</v>
+        <v>34.78450331738118</v>
       </c>
       <c r="D12" t="n">
-        <v>150.1739597709676</v>
+        <v>99.94634556895285</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B13" t="n">
-        <v>86.93696924098603</v>
+        <v>117.9002362752504</v>
       </c>
       <c r="C13" t="n">
-        <v>52.52280373539845</v>
+        <v>86.22497501222283</v>
       </c>
       <c r="D13" t="n">
-        <v>120.7099283522146</v>
+        <v>149.8781666168823</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44978</v>
@@ -713,39 +713,39 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B14" t="n">
-        <v>58.89016597491537</v>
+        <v>90.18104543898502</v>
       </c>
       <c r="C14" t="n">
-        <v>24.14935731483862</v>
+        <v>54.72057118138491</v>
       </c>
       <c r="D14" t="n">
-        <v>92.71380696153079</v>
+        <v>123.0082405137166</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B15" t="n">
-        <v>89.62472284217188</v>
+        <v>62.16252713831782</v>
       </c>
       <c r="C15" t="n">
-        <v>53.67272918781371</v>
+        <v>30.40156617642358</v>
       </c>
       <c r="D15" t="n">
-        <v>122.5053820013334</v>
+        <v>96.264371677388</v>
       </c>
       <c r="E15" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>44985</v>
@@ -753,201 +753,221 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B16" t="n">
-        <v>95.7933202917216</v>
+        <v>95.09484199972937</v>
       </c>
       <c r="C16" t="n">
-        <v>60.79388800861675</v>
+        <v>60.36696671924782</v>
       </c>
       <c r="D16" t="n">
-        <v>133.5914433567623</v>
+        <v>129.1025010782979</v>
       </c>
       <c r="E16" t="n">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B17" t="n">
-        <v>111.31419952494</v>
+        <v>99.13375017956062</v>
       </c>
       <c r="C17" t="n">
-        <v>78.43217277242003</v>
+        <v>65.73468114001318</v>
       </c>
       <c r="D17" t="n">
-        <v>148.4651065513089</v>
+        <v>136.5089165570761</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B18" t="n">
-        <v>99.61879340162741</v>
+        <v>109.4542099495735</v>
       </c>
       <c r="C18" t="n">
-        <v>64.82670277100647</v>
+        <v>75.19267464411891</v>
       </c>
       <c r="D18" t="n">
-        <v>132.3633959325869</v>
+        <v>142.332564256387</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B19" t="n">
-        <v>86.65940696004255</v>
+        <v>97.43046984297338</v>
       </c>
       <c r="C19" t="n">
-        <v>55.39720789837249</v>
+        <v>62.90742344254794</v>
       </c>
       <c r="D19" t="n">
-        <v>122.2458236730808</v>
+        <v>133.1355016643215</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B20" t="n">
-        <v>86.6615332404091</v>
+        <v>90.57626363783419</v>
       </c>
       <c r="C20" t="n">
-        <v>49.71579722616039</v>
+        <v>54.44912802894905</v>
       </c>
       <c r="D20" t="n">
-        <v>123.0193107707384</v>
+        <v>128.100619378306</v>
       </c>
       <c r="E20" t="n">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B21" t="n">
-        <v>91.0853795521552</v>
+        <v>99.69957125515113</v>
       </c>
       <c r="C21" t="n">
-        <v>54.64020884224121</v>
+        <v>65.48788333412345</v>
       </c>
       <c r="D21" t="n">
-        <v>126.0906030046546</v>
+        <v>136.9566065303275</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B22" t="n">
-        <v>70.49438432040283</v>
+        <v>111.7950191009084</v>
       </c>
       <c r="C22" t="n">
-        <v>33.78398784438816</v>
+        <v>76.59144575500332</v>
       </c>
       <c r="D22" t="n">
-        <v>105.9530574086911</v>
+        <v>146.7584039553208</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B23" t="n">
-        <v>104.3856870064019</v>
+        <v>90.3320632901479</v>
       </c>
       <c r="C23" t="n">
-        <v>72.03626274239838</v>
+        <v>53.05948659806744</v>
       </c>
       <c r="D23" t="n">
-        <v>138.6253016740028</v>
+        <v>123.8433325869399</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B24" t="n">
-        <v>94.93625635700644</v>
+        <v>115.4798492509448</v>
       </c>
       <c r="C24" t="n">
-        <v>58.96932742012335</v>
+        <v>79.41511198983588</v>
       </c>
       <c r="D24" t="n">
-        <v>130.8767083948694</v>
+        <v>149.2540468416061</v>
       </c>
       <c r="E24" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B25" t="n">
+        <v>96.66851858944588</v>
+      </c>
+      <c r="C25" t="n">
+        <v>58.68419920527257</v>
+      </c>
+      <c r="D25" t="n">
+        <v>133.1627896936731</v>
+      </c>
+      <c r="E25" t="n">
+        <v>78</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B25" t="n">
-        <v>79.40992047167379</v>
-      </c>
-      <c r="C25" t="n">
-        <v>43.48305337155342</v>
-      </c>
-      <c r="D25" t="n">
-        <v>115.0573445034691</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="B26" t="n">
+        <v>77.45918724662992</v>
+      </c>
+      <c r="C26" t="n">
+        <v>42.43546885039488</v>
+      </c>
+      <c r="D26" t="n">
+        <v>113.3320575938553</v>
+      </c>
+      <c r="E26" t="n">
         <v>30</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F26" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1017,22 +1037,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>919.63006095944</v>
+        <v>1177.809471309474</v>
       </c>
       <c r="C2" t="n">
-        <v>30.32540289855091</v>
+        <v>34.31922888570595</v>
       </c>
       <c r="D2" t="n">
-        <v>29.16894254420279</v>
+        <v>33.1767972682244</v>
       </c>
       <c r="E2" t="n">
-        <v>1.118583756229606</v>
+        <v>1.278021465518354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7904420432375336</v>
+        <v>1.089962652754773</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6580989312956353</v>
+        <v>0.7157837947135111</v>
       </c>
       <c r="H2" t="n">
         <v>0.6666666666666667</v>
@@ -1043,22 +1063,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1279.712611223963</v>
+        <v>2408.883666077943</v>
       </c>
       <c r="C3" t="n">
-        <v>35.77307103428448</v>
+        <v>49.08037964480249</v>
       </c>
       <c r="D3" t="n">
-        <v>34.83166343230282</v>
+        <v>46.75443027918615</v>
       </c>
       <c r="E3" t="n">
-        <v>1.23419828345485</v>
+        <v>1.644545120928309</v>
       </c>
       <c r="F3" t="n">
-        <v>1.810744349087696</v>
+        <v>2.232271253122405</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7320011787634079</v>
+        <v>0.859271676282956</v>
       </c>
       <c r="H3" t="n">
         <v>0.3333333333333334</v>
@@ -1069,25 +1089,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1491.019235007499</v>
+        <v>1979.172054808336</v>
       </c>
       <c r="C4" t="n">
-        <v>38.61371822302923</v>
+        <v>44.48788660757371</v>
       </c>
       <c r="D4" t="n">
-        <v>33.51167037205761</v>
+        <v>38.26077713873394</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8828204338170798</v>
+        <v>0.9169809290447191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4535231889586623</v>
+        <v>0.4476878207721928</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4699717267533448</v>
+        <v>0.4979695175318914</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5789473684210522</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
   </sheetData>
